--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>0.5500763214644444</v>
+        <v>1.518938573704</v>
       </c>
       <c r="R2">
-        <v>4.95068689318</v>
+        <v>13.670447163336</v>
       </c>
       <c r="S2">
-        <v>0.0005186492490540358</v>
+        <v>0.001527062659577926</v>
       </c>
       <c r="T2">
-        <v>0.0005186492490540357</v>
+        <v>0.001527062659577926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>1.372605018283111</v>
+        <v>3.546441895771333</v>
       </c>
       <c r="R3">
-        <v>12.353445164548</v>
+        <v>31.917977061942</v>
       </c>
       <c r="S3">
-        <v>0.001294185068873851</v>
+        <v>0.003565410140443583</v>
       </c>
       <c r="T3">
-        <v>0.001294185068873851</v>
+        <v>0.003565410140443583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>0.2985047512626667</v>
+        <v>1.128575825977</v>
       </c>
       <c r="R4">
-        <v>2.686542761364</v>
+        <v>10.157182433793</v>
       </c>
       <c r="S4">
-        <v>0.0002814505170287555</v>
+        <v>0.001134612045666329</v>
       </c>
       <c r="T4">
-        <v>0.0002814505170287555</v>
+        <v>0.001134612045666329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>0.8568110776053334</v>
+        <v>0.7154972820456665</v>
       </c>
       <c r="R5">
-        <v>7.711299698447999</v>
+        <v>6.439475538411</v>
       </c>
       <c r="S5">
-        <v>0.0008078595726464281</v>
+        <v>0.0007193241394726428</v>
       </c>
       <c r="T5">
-        <v>0.000807859572646428</v>
+        <v>0.0007193241394726428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>0.1986629135588888</v>
+        <v>0.5333943371583333</v>
       </c>
       <c r="R6">
-        <v>1.78796622203</v>
+        <v>4.800549034425</v>
       </c>
       <c r="S6">
-        <v>0.000187312863527547</v>
+        <v>0.0005362472118398769</v>
       </c>
       <c r="T6">
-        <v>0.0001873128635275469</v>
+        <v>0.0005362472118398769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>0.3033860693044445</v>
+        <v>0.5819177053836666</v>
       </c>
       <c r="R7">
-        <v>2.73047462374</v>
+        <v>5.237259348453</v>
       </c>
       <c r="S7">
-        <v>0.0002860529546141836</v>
+        <v>0.0005850301086710271</v>
       </c>
       <c r="T7">
-        <v>0.0002860529546141835</v>
+        <v>0.000585030108671027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>62.98048993916555</v>
+        <v>67.30944797163467</v>
       </c>
       <c r="R8">
-        <v>566.82440945249</v>
+        <v>605.785031744712</v>
       </c>
       <c r="S8">
-        <v>0.05938227576319122</v>
+        <v>0.06766945445571167</v>
       </c>
       <c r="T8">
-        <v>0.05938227576319122</v>
+        <v>0.06766945445571167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>157.1551676943349</v>
@@ -1013,10 +1013,10 @@
         <v>1414.396509249014</v>
       </c>
       <c r="S9">
-        <v>0.1481765466519837</v>
+        <v>0.1579957165486356</v>
       </c>
       <c r="T9">
-        <v>0.1481765466519837</v>
+        <v>0.1579957165486356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>34.17703098661134</v>
+        <v>50.01111773427566</v>
       </c>
       <c r="R10">
-        <v>307.593278879502</v>
+        <v>450.1000596084809</v>
       </c>
       <c r="S10">
-        <v>0.03222442189278681</v>
+        <v>0.05027860361037235</v>
       </c>
       <c r="T10">
-        <v>0.03222442189278681</v>
+        <v>0.05027860361037235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>98.09980787616266</v>
+        <v>31.70617160788744</v>
       </c>
       <c r="R11">
-        <v>882.8982708854639</v>
+        <v>285.355544470987</v>
       </c>
       <c r="S11">
-        <v>0.0924951496764357</v>
+        <v>0.03187575296248283</v>
       </c>
       <c r="T11">
-        <v>0.09249514967643568</v>
+        <v>0.03187575296248283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>22.74573025679611</v>
+        <v>23.63655713724722</v>
       </c>
       <c r="R12">
-        <v>204.711572311165</v>
+        <v>212.729014235225</v>
       </c>
       <c r="S12">
-        <v>0.02144621656403273</v>
+        <v>0.02376297793086674</v>
       </c>
       <c r="T12">
-        <v>0.02144621656403273</v>
+        <v>0.02376297793086674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>34.73591307228556</v>
+        <v>25.78679624863344</v>
       </c>
       <c r="R13">
-        <v>312.62321765057</v>
+        <v>232.081166237701</v>
       </c>
       <c r="S13">
-        <v>0.03275137381333666</v>
+        <v>0.02592471765688794</v>
       </c>
       <c r="T13">
-        <v>0.03275137381333666</v>
+        <v>0.02592471765688793</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>6.864306788344444</v>
+        <v>7.336124267653334</v>
       </c>
       <c r="R14">
-        <v>61.7787610951</v>
+        <v>66.02511840888</v>
       </c>
       <c r="S14">
-        <v>0.006472133815128209</v>
+        <v>0.007375361735556247</v>
       </c>
       <c r="T14">
-        <v>0.006472133815128208</v>
+        <v>0.007375361735556247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
         <v>17.12849940465111</v>
@@ -1385,10 +1385,10 @@
         <v>154.15649464186</v>
       </c>
       <c r="S15">
-        <v>0.0161499104887739</v>
+        <v>0.01722011166762468</v>
       </c>
       <c r="T15">
-        <v>0.0161499104887739</v>
+        <v>0.01722011166762468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>3.724988897886667</v>
+        <v>5.450761899243333</v>
       </c>
       <c r="R16">
-        <v>33.52490008098</v>
+        <v>49.05685709319</v>
       </c>
       <c r="S16">
-        <v>0.003512172073649997</v>
+        <v>0.005479915453254271</v>
       </c>
       <c r="T16">
-        <v>0.003512172073649996</v>
+        <v>0.005479915453254271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>10.69199648637333</v>
+        <v>3.455687455125556</v>
       </c>
       <c r="R17">
-        <v>96.22796837736</v>
+        <v>31.10118709613</v>
       </c>
       <c r="S17">
-        <v>0.01008113916589365</v>
+        <v>0.003474170297108052</v>
       </c>
       <c r="T17">
-        <v>0.01008113916589365</v>
+        <v>0.003474170297108052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>2.479079962038889</v>
+        <v>2.576172077527778</v>
       </c>
       <c r="R18">
-        <v>22.31171965835</v>
+        <v>23.18554869775</v>
       </c>
       <c r="S18">
-        <v>0.002337444660830554</v>
+        <v>0.002589950806665461</v>
       </c>
       <c r="T18">
-        <v>0.002337444660830553</v>
+        <v>0.002589950806665461</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>3.785902017144445</v>
+        <v>2.810528795665555</v>
       </c>
       <c r="R19">
-        <v>34.0731181543</v>
+        <v>25.29475916099</v>
       </c>
       <c r="S19">
-        <v>0.00356960509217455</v>
+        <v>0.002825560988331155</v>
       </c>
       <c r="T19">
-        <v>0.003569605092174549</v>
+        <v>0.002825560988331154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>8.966971582908888</v>
+        <v>10.763662257536</v>
       </c>
       <c r="R20">
-        <v>80.70274424618</v>
+        <v>96.87296031782401</v>
       </c>
       <c r="S20">
-        <v>0.008454668736482204</v>
+        <v>0.01082123200921129</v>
       </c>
       <c r="T20">
-        <v>0.008454668736482204</v>
+        <v>0.01082123200921129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>22.37527723559422</v>
+        <v>25.13116951725867</v>
       </c>
       <c r="R21">
-        <v>201.377495120348</v>
+        <v>226.180525655328</v>
       </c>
       <c r="S21">
-        <v>0.02109692834027381</v>
+        <v>0.02526558428741789</v>
       </c>
       <c r="T21">
-        <v>0.0210969283402738</v>
+        <v>0.02526558428741789</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>4.866022254529334</v>
+        <v>7.997432702768</v>
       </c>
       <c r="R22">
-        <v>43.794200290764</v>
+        <v>71.976894324912</v>
       </c>
       <c r="S22">
-        <v>0.004588015680211377</v>
+        <v>0.008040207197519156</v>
       </c>
       <c r="T22">
-        <v>0.004588015680211375</v>
+        <v>0.008040207197519156</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>13.96715380213867</v>
+        <v>5.070232084069334</v>
       </c>
       <c r="R23">
-        <v>125.704384219248</v>
+        <v>45.63208875662401</v>
       </c>
       <c r="S23">
-        <v>0.01316917952697165</v>
+        <v>0.005097350363613232</v>
       </c>
       <c r="T23">
-        <v>0.01316917952697165</v>
+        <v>0.005097350363613231</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>3.238468246947777</v>
+        <v>3.779795045466667</v>
       </c>
       <c r="R24">
-        <v>29.14621422252999</v>
+        <v>34.0181554092</v>
       </c>
       <c r="S24">
-        <v>0.003053447419611156</v>
+        <v>0.003800011386052666</v>
       </c>
       <c r="T24">
-        <v>0.003053447419611155</v>
+        <v>0.003800011386052665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>4.94559419474889</v>
+        <v>4.123646440261334</v>
       </c>
       <c r="R25">
-        <v>44.51034775274</v>
+        <v>37.112817962352</v>
       </c>
       <c r="S25">
-        <v>0.004663041500139008</v>
+        <v>0.00414570187974675</v>
       </c>
       <c r="T25">
-        <v>0.004663041500139007</v>
+        <v>0.004145701879746748</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>79.75950032338555</v>
+        <v>98.87788357733868</v>
       </c>
       <c r="R26">
-        <v>717.8355029104699</v>
+        <v>889.900952196048</v>
       </c>
       <c r="S26">
-        <v>0.07520266430941604</v>
+        <v>0.09940673473111213</v>
       </c>
       <c r="T26">
-        <v>0.07520266430941602</v>
+        <v>0.09940673473111211</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>199.0238192914269</v>
+        <v>230.8616523107729</v>
       </c>
       <c r="R27">
-        <v>1791.214373622842</v>
+        <v>2077.754870796956</v>
       </c>
       <c r="S27">
-        <v>0.1876531499202821</v>
+        <v>0.2320964223803719</v>
       </c>
       <c r="T27">
-        <v>0.187653149920282</v>
+        <v>0.2320964223803719</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>43.28233896976734</v>
+        <v>73.46655820125267</v>
       </c>
       <c r="R28">
-        <v>389.541050727906</v>
+        <v>661.1990238112739</v>
       </c>
       <c r="S28">
-        <v>0.04080952356612766</v>
+        <v>0.07385949616334109</v>
       </c>
       <c r="T28">
-        <v>0.04080952356612764</v>
+        <v>0.07385949616334109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>124.2351665663547</v>
+        <v>46.57650953026645</v>
       </c>
       <c r="R29">
-        <v>1118.116499097192</v>
+        <v>419.188585772398</v>
       </c>
       <c r="S29">
-        <v>0.1171373377319747</v>
+        <v>0.04682562530735077</v>
       </c>
       <c r="T29">
-        <v>0.1171373377319746</v>
+        <v>0.04682562530735077</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>28.80555679266611</v>
+        <v>34.72220936607222</v>
       </c>
       <c r="R30">
-        <v>259.250011133995</v>
+        <v>312.49988429465</v>
       </c>
       <c r="S30">
-        <v>0.02715983185628785</v>
+        <v>0.0349079220838252</v>
       </c>
       <c r="T30">
-        <v>0.02715983185628784</v>
+        <v>0.0349079220838252</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>43.99011618674556</v>
+        <v>37.88092034835044</v>
       </c>
       <c r="R31">
-        <v>395.91104568071</v>
+        <v>340.928283135154</v>
       </c>
       <c r="S31">
-        <v>0.04147686391102021</v>
+        <v>0.03808352752103084</v>
       </c>
       <c r="T31">
-        <v>0.0414768639110202</v>
+        <v>0.03808352752103083</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N32">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O32">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P32">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q32">
-        <v>3.839595666106667</v>
+        <v>2.468315477413333</v>
       </c>
       <c r="R32">
-        <v>34.55636099496</v>
+        <v>22.21483929672</v>
       </c>
       <c r="S32">
-        <v>0.00362023110465058</v>
+        <v>0.002481517332478181</v>
       </c>
       <c r="T32">
-        <v>0.003620231104650579</v>
+        <v>0.00248151733247818</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>81.613078</v>
       </c>
       <c r="O33">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P33">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q33">
-        <v>9.580940087450667</v>
+        <v>5.76306216237111</v>
       </c>
       <c r="R33">
-        <v>86.22846078705601</v>
+        <v>51.86755946133999</v>
       </c>
       <c r="S33">
-        <v>0.009033559867399581</v>
+        <v>0.005793886063162374</v>
       </c>
       <c r="T33">
-        <v>0.009033559867399579</v>
+        <v>0.005793886063162374</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N34">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O34">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P34">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q34">
-        <v>2.083597320112001</v>
+        <v>1.833965656623333</v>
       </c>
       <c r="R34">
-        <v>18.752375881008</v>
+        <v>16.50569090961</v>
       </c>
       <c r="S34">
-        <v>0.001964556813734694</v>
+        <v>0.001843774673750277</v>
       </c>
       <c r="T34">
-        <v>0.001964556813734694</v>
+        <v>0.001843774673750277</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N35">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O35">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P35">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q35">
-        <v>5.980639361984001</v>
+        <v>1.162702064385555</v>
       </c>
       <c r="R35">
-        <v>53.825754257856</v>
+        <v>10.46431857947</v>
       </c>
       <c r="S35">
-        <v>0.005638952256112529</v>
+        <v>0.001168920809225135</v>
       </c>
       <c r="T35">
-        <v>0.005638952256112527</v>
+        <v>0.001168920809225135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N36">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O36">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P36">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q36">
-        <v>1.386689868573333</v>
+        <v>0.8667799480277776</v>
       </c>
       <c r="R36">
-        <v>12.48020881716</v>
+        <v>7.801019532249999</v>
       </c>
       <c r="S36">
-        <v>0.001307465220629182</v>
+        <v>0.0008714159450677389</v>
       </c>
       <c r="T36">
-        <v>0.001307465220629182</v>
+        <v>0.0008714159450677389</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N37">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O37">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P37">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q37">
-        <v>2.117669478586667</v>
+        <v>0.9456317086455555</v>
       </c>
       <c r="R37">
-        <v>19.05902530728001</v>
+        <v>8.510685377809999</v>
       </c>
       <c r="S37">
-        <v>0.001996682354713244</v>
+        <v>0.0009506894465548707</v>
       </c>
       <c r="T37">
-        <v>0.001996682354713244</v>
+        <v>0.0009506894465548705</v>
       </c>
     </row>
   </sheetData>
